--- a/Projects/Automate_Python/Report_Budget/C. Finaceiro 2.2.xlsx
+++ b/Projects/Automate_Python/Report_Budget/C. Finaceiro 2.2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524CECD-5843-4322-994C-CB4319062254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73424A80-A461-47B2-8F73-FD5E0F7A3A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Receitas" sheetId="8" r:id="rId1"/>
-    <sheet name="Mov." sheetId="12" r:id="rId2"/>
+    <sheet name="Saldo &amp; Mov." sheetId="12" r:id="rId2"/>
     <sheet name="Despesas - Mapa" sheetId="1" r:id="rId3"/>
     <sheet name="Resumo" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Resultado " sheetId="9" state="hidden" r:id="rId5"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>Mês</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Outros</t>
-  </si>
-  <si>
-    <t>INSS</t>
   </si>
   <si>
     <t>Descrição</t>
@@ -237,13 +234,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Rendimentos</t>
-  </si>
-  <si>
     <t>Dízimo</t>
-  </si>
-  <si>
-    <t>Número de Transações</t>
   </si>
   <si>
     <t>Real Vs Planilha</t>
@@ -253,6 +244,39 @@
   </si>
   <si>
     <t>Planilha</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Receitas</t>
+  </si>
+  <si>
+    <t>Perdas</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Inss</t>
+  </si>
+  <si>
+    <t>T. Trans.</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>Cabelo</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Tênis</t>
+  </si>
+  <si>
+    <t>* Preen. Auto</t>
   </si>
 </sst>
 </file>
@@ -379,12 +403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -609,13 +633,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -651,17 +695,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,9 +720,6 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,10 +788,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,22 +845,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -875,16 +893,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -897,11 +905,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,10 +935,25 @@
     <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -921,7 +962,44 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1054,26 +1132,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3"/>
@@ -1114,8 +1172,8 @@
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tracking table" pivot="0" count="0" xr9:uid="{88815A96-0DF6-4017-8492-6A879ED5C492}"/>
     <tableStyle name="Tracking Table 1" pivot="0" count="2" xr9:uid="{E8395723-409A-4BE8-B2D2-23E4458724D1}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1281,7 +1339,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1464,7 +1522,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1579,7 +1637,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2073,22 +2131,22 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,10 +2536,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2499,7 +2557,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,19 +4448,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B11:F16" insertRowShift="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B11:F16" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:F508">
-    <sortCondition ref="B11:B508"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B9:F15" insertRowShift="1" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8">
+  <autoFilter ref="B9:F15" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:F506">
+    <sortCondition ref="B9:B506"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Data" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Mês" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISBLANK(B12),"",PROPER(TEXT(B12,"MMMM")))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Data" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Mês" dataDxfId="6">
+      <calculatedColumnFormula>IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Categoria" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Valor" dataDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Descrição" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Categoria" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Valor" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Descrição" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4698,11 +4756,11 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4714,71 +4772,62 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1000</v>
+      </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="63"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -4786,354 +4835,317 @@
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="63"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+    <row r="6" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="63"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="20">
+        <v>150</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="20">
-        <f t="shared" ref="B10:M10" si="0">IF((SUM(B3:B8)-SUM(B13:B17)) &gt; 10, ((SUM(B3:B8)-SUM(B13:B17))*0.1), (0))</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="20">
+        <f t="shared" ref="B14:M14" si="0">IF((SUM(B4:B6)-SUM(B9:B12)) &gt; 10, ((SUM(B4:B6)-SUM(B9:B12))*0.1), (0))</f>
+        <v>85</v>
+      </c>
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="63">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106" t="s">
+      <c r="B15" s="20">
+        <v>50</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="20">
-        <f>ROUND(SUM(B3:B8)-SUM(B10:B11)-SUM(B13:B17),2)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="20">
-        <f t="shared" ref="C19:M19" si="1">ROUND(SUM(C3:C8)-SUM(C10:C11)-SUM(C13:C17),2)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="B17" s="20">
+        <f t="shared" ref="B17:M17" si="1">ROUND(SUM(B4:B6)-SUM(B14:B15)-SUM(B9:B12),2)</f>
+        <v>715</v>
+      </c>
+      <c r="C17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="20">
+      <c r="D17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="20">
+      <c r="E17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="F17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="20">
-        <f>ROUND(SUM(H3:H8)-SUM(H10:H11)-SUM(H13:H17),2)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="G17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="20">
-        <f>ROUND(SUM(J3:J8)-SUM(J10:J11)-SUM(J13:J17),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="20">
+      <c r="H17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="20">
+      <c r="I17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="20">
+      <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="K17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5147,3224 +5159,3248 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B1:G520"/>
+  <dimension ref="A2:G518"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="97" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="98" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="69" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="99" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" style="117" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="69" customWidth="1"/>
-    <col min="8" max="8" width="10" style="69" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="69"/>
+    <col min="1" max="1" width="11.42578125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="88" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="89" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="103" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="63" customWidth="1"/>
+    <col min="8" max="8" width="10" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-    </row>
-    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="88" t="str">
+    <row r="2" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="111" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="89">
-        <f ca="1">VLOOKUP(C2,Resumo!A3:I14,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="112"/>
-      <c r="C4" s="111"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="69"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="20">
         <v>50</v>
       </c>
+      <c r="D3" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="81">
+        <f ca="1">VLOOKUP(D2,Resumo!A3:I14,9,FALSE)</f>
+        <v>155</v>
+      </c>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20">
+        <v>55</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="81">
+        <f ca="1">ROUND(C6-E3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="20">
+        <v>50</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="81">
+        <f>Resumo!I15</f>
+        <v>155</v>
+      </c>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="82" t="s">
+        <v>3</v>
+      </c>
       <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="89">
-        <f ca="1">VLOOKUP(C2,Resumo!A3:I14,9,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="69"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="90" t="s">
+        <f>SUM(C3:C5)</f>
+        <v>155</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="108">
+        <f>SUBTOTAL(2,Tabela1[Data])</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="20">
+        <f>SUBTOTAL(9,Tabela1[Valor])</f>
+        <v>560</v>
+      </c>
+      <c r="F8" s="63"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="89">
-        <f ca="1">ROUND(SUM(C6:C8)-E6,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="69"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B8" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="89">
-        <f>Resumo!I15</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="69"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="F9" s="69"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B10" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114">
-        <f>COUNT(Tabela1[Data])</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="69"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="103" t="s">
+      <c r="C9" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="103"/>
-      <c r="C12" s="104" t="str">
-        <f>IF(ISBLANK(B12),"",PROPER(TEXT(B12,"MMMM")))</f>
-        <v/>
-      </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="115"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="115"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="103"/>
-      <c r="C14" s="104" t="str">
-        <f>IF(ISBLANK(B14),"",PROPER(TEXT(B14,"MMMM")))</f>
-        <v/>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="115"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="103"/>
-      <c r="C15" s="104" t="str">
-        <f>IF(ISBLANK(B15),"",PROPER(TEXT(B15,"MMMM")))</f>
-        <v/>
-      </c>
-      <c r="D15" s="102"/>
+      <c r="E9" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="93">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="94" t="str">
+        <f t="shared" ref="C10:C15" si="0">IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</f>
+        <v>Outubro</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="95">
+        <v>10</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="93">
+        <v>45201</v>
+      </c>
+      <c r="C11" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Outubro</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="95">
+        <v>150</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="93">
+        <v>45207</v>
+      </c>
+      <c r="C12" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Outubro</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="95">
+        <v>400</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="93"/>
+      <c r="C13" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="101"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="93"/>
+      <c r="C14" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D14" s="92"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="101"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="93"/>
+      <c r="C15" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D15" s="92"/>
       <c r="E15" s="105"/>
-      <c r="F15" s="115"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
-      <c r="C16" s="104" t="str">
-        <f>IF(ISBLANK(B16),"",PROPER(TEXT(B16,"MMMM")))</f>
-        <v/>
-      </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="115"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="116"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="116"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="116"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="116"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="116"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="E22" s="69"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="E23" s="69"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="E24" s="69"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="E26" s="69"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="E27" s="69"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="E28" s="69"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="98" t="str">
-        <f t="shared" ref="C29:C87" si="0">IF(ISBLANK(B29),"",PROPER(TEXT(B29,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="98" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="102"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="102"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="102"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="63"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="102"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="E21" s="63"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="E22" s="63"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="E23" s="63"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="E24" s="63"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="E26" s="63"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="88" t="str">
+        <f t="shared" ref="C27:C85" si="1">IF(ISBLANK(B27),"",PROPER(TEXT(B27,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C49" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C50" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C51" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C52" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C53" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C54" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C55" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C56" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C57" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C58" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C59" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C60" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C61" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C62" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C63" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C64" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C65" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C66" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C67" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C68" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C69" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C70" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C71" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C72" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C73" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C74" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C75" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C76" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C77" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C78" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C79" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C80" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C81" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C82" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C83" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C84" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C85" s="88" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C86" s="88" t="str">
+        <f t="shared" ref="C86:C149" si="2">IF(ISBLANK(B86),"",PROPER(TEXT(B86,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="98" t="str">
-        <f t="shared" si="0"/>
+      <c r="C87" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="98" t="str">
-        <f t="shared" ref="C88:C151" si="1">IF(ISBLANK(B88),"",PROPER(TEXT(B88,"MMMM")))</f>
+      <c r="C88" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C89" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C90" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C91" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C92" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C93" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C94" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C95" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C96" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C97" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C98" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C99" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C100" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C101" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C102" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C103" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C104" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C105" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C106" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C107" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C108" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C109" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C110" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C111" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C112" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C113" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C114" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C115" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C116" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C117" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C118" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C119" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C120" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C121" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C122" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C123" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C124" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C125" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C126" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C127" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C128" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C129" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C130" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C131" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C132" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C133" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C134" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C135" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C136" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C137" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C138" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C139" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C140" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C141" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C142" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C143" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C144" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C145" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C146" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C147" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C148" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C149" s="88" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C150" s="88" t="str">
+        <f t="shared" ref="C150:C213" si="3">IF(ISBLANK(B150),"",PROPER(TEXT(B150,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="98" t="str">
-        <f t="shared" si="1"/>
+      <c r="C151" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="98" t="str">
-        <f t="shared" ref="C152:C215" si="2">IF(ISBLANK(B152),"",PROPER(TEXT(B152,"MMMM")))</f>
+      <c r="C152" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C153" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C154" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C155" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C156" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C157" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C158" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C159" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C160" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C161" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C162" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C163" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C164" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C165" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C166" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C167" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C168" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C169" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C170" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C171" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C172" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C173" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C174" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C175" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C176" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C177" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C178" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C179" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C180" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C181" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C182" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C183" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C184" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C185" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C186" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C187" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C188" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C189" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C190" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C191" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C192" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C193" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C194" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C195" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C196" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C197" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C198" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C199" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C200" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C201" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C202" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C203" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C204" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C205" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C206" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C207" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C208" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C209" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C210" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C211" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C212" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C213" s="88" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C214" s="88" t="str">
+        <f t="shared" ref="C214:C277" si="4">IF(ISBLANK(B214),"",PROPER(TEXT(B214,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" s="98" t="str">
-        <f t="shared" si="2"/>
+      <c r="C215" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" s="98" t="str">
-        <f t="shared" ref="C216:C279" si="3">IF(ISBLANK(B216),"",PROPER(TEXT(B216,"MMMM")))</f>
+      <c r="C216" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C217" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C218" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C219" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C220" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C221" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C222" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C223" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C224" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C225" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C226" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C227" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C228" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C229" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C230" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C231" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C232" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C233" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C234" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C235" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C236" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C237" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C238" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C239" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C240" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C241" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C242" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C243" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C244" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C245" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C246" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C247" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C248" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C249" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C250" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C251" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C252" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C253" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C254" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C255" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C256" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C257" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C258" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C259" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C260" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C261" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C262" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C263" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C264" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C265" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C266" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C267" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C268" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C269" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C270" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C271" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C272" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C273" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C274" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C275" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C276" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C277" s="88" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C278" s="88" t="str">
+        <f t="shared" ref="C278:C341" si="5">IF(ISBLANK(B278),"",PROPER(TEXT(B278,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="98" t="str">
-        <f t="shared" si="3"/>
+      <c r="C279" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="98" t="str">
-        <f t="shared" ref="C280:C343" si="4">IF(ISBLANK(B280),"",PROPER(TEXT(B280,"MMMM")))</f>
+      <c r="C280" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C281" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C282" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C283" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C284" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C285" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C286" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C287" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C288" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C289" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C290" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C291" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C292" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C293" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C294" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C295" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C296" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C297" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C298" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C299" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C300" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C301" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C302" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C303" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C304" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C305" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C306" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C306" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C307" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C307" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C308" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C308" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C309" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C309" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C310" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C310" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C311" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C311" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C312" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C312" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C313" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C313" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C314" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C314" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C315" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C315" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C316" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C316" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C317" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C317" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C318" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C318" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C319" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C319" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C320" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C320" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C321" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C322" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C323" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C324" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C325" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C326" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C327" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C328" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C329" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C330" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C331" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C331" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C332" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C332" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C333" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C333" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C334" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C334" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C335" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C335" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C336" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C336" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C337" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C338" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C339" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C340" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C341" s="88" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C342" s="88" t="str">
+        <f t="shared" ref="C342:C405" si="6">IF(ISBLANK(B342),"",PROPER(TEXT(B342,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="98" t="str">
-        <f t="shared" si="4"/>
+      <c r="C343" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="98" t="str">
-        <f t="shared" ref="C344:C407" si="5">IF(ISBLANK(B344),"",PROPER(TEXT(B344,"MMMM")))</f>
+      <c r="C344" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C345" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C346" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C347" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C348" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C349" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C350" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C351" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C352" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C353" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C354" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C355" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C356" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C357" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C358" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C359" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C360" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C361" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C362" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C363" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C364" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C365" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C366" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C367" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C368" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C369" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C370" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C371" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C372" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C373" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C374" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C375" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C376" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C377" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C378" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C379" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C380" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C381" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C382" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C383" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C384" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C385" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C386" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C387" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C388" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C389" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C390" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C391" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C392" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C393" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C394" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C395" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C396" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C397" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C398" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C399" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C400" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C401" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C402" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C403" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C404" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C405" s="88" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C406" s="88" t="str">
+        <f t="shared" ref="C406:C469" si="7">IF(ISBLANK(B406),"",PROPER(TEXT(B406,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="98" t="str">
-        <f t="shared" si="5"/>
+      <c r="C407" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="98" t="str">
-        <f t="shared" ref="C408:C471" si="6">IF(ISBLANK(B408),"",PROPER(TEXT(B408,"MMMM")))</f>
+      <c r="C408" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C409" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C410" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C411" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C412" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C413" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C414" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C415" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C415" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C416" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C416" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C417" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C418" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C419" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C420" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C421" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C422" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C423" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C424" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C425" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C426" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C427" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C428" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C429" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C430" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C431" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C432" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C432" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C433" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C433" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C434" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C434" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C435" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C435" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C436" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C436" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C437" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C437" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C438" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C438" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C439" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C439" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C440" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C440" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C441" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C441" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C442" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C442" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C443" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C443" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C444" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C444" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C445" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C445" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C446" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C446" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C447" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C447" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C448" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C448" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C449" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C449" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C450" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C450" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C451" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C452" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C452" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C453" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C453" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C454" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C454" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C455" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C455" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C456" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C456" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C457" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C457" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C458" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C458" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C459" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C459" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C460" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C460" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C461" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C461" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C462" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C462" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C463" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C463" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C464" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C464" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C465" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C465" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C466" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C466" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C467" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C467" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C468" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C468" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C469" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C469" s="88" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C470" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C470" s="88" t="str">
+        <f t="shared" ref="C470:C518" si="8">IF(ISBLANK(B470),"",PROPER(TEXT(B470,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C471" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="C471" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C472" s="98" t="str">
-        <f t="shared" ref="C472:C520" si="7">IF(ISBLANK(B472),"",PROPER(TEXT(B472,"MMMM")))</f>
+      <c r="C472" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C473" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C473" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C474" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C474" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C475" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C475" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C476" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C476" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C477" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C477" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C478" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C478" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C479" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C479" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C480" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C480" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C481" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C481" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C482" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C482" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C483" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C483" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C484" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C484" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C485" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C485" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C486" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C486" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C487" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C487" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C488" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C488" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C489" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C489" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C490" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C490" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C491" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C491" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C492" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C492" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C493" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C493" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C494" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C494" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C495" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C495" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C496" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C496" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C497" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C497" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C498" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C498" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C499" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C499" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C500" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C500" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C501" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C501" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C502" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C502" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C503" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C503" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C504" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C504" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C505" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C505" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C506" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C506" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C507" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C507" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C508" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C508" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C509" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C509" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C510" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C510" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C511" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C511" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C512" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C512" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C513" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C513" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C514" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C514" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C515" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C515" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C516" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C516" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C517" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C517" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C518" s="98" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C519" s="98" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C520" s="98" t="str">
-        <f t="shared" si="7"/>
+      <c r="C518" s="88" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:E5"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -8377,7 +8413,7 @@
           <x14:formula1>
             <xm:f>'Despesas - Mapa'!$C$7:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D12:D16</xm:sqref>
+          <xm:sqref>D10:D15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8390,12 +8426,12 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:AK17"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -8404,7 +8440,7 @@
     <col min="2" max="2" width="6.5703125" style="7" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="60" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="7" customWidth="1"/>
     <col min="9" max="10" width="15.7109375" style="7" customWidth="1"/>
@@ -8432,351 +8468,356 @@
     <col min="42" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="100" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="85" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="82" t="s">
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="85" t="s">
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="82" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="85" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="82" t="s">
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="85" t="s">
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="82" t="s">
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="85" t="s">
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="82" t="s">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+    <row r="3" spans="1:37" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="6">
-        <f>Receitas!B19</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="68"/>
+        <f>Receitas!B17</f>
+        <v>715</v>
+      </c>
+      <c r="F3" s="62"/>
       <c r="G3" s="6">
-        <f>Receitas!C19</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="68"/>
+        <f>Receitas!C17</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="62"/>
       <c r="J3" s="6">
-        <f>Receitas!D19</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="68"/>
+        <f>Receitas!D17</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="62"/>
       <c r="M3" s="6">
-        <f>Receitas!E19</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="68"/>
+        <f>Receitas!E17</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="62"/>
       <c r="P3" s="6">
-        <f>Receitas!F19</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="68"/>
+        <f>Receitas!F17</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="62"/>
       <c r="S3" s="6">
-        <f>Receitas!G19</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="68"/>
+        <f>Receitas!G17</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="62"/>
       <c r="V3" s="6">
-        <f>Receitas!H19</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="68"/>
+        <f>Receitas!H17</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="62"/>
       <c r="Y3" s="6">
-        <f>Receitas!I19</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="68"/>
+        <f>Receitas!I17</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="62"/>
       <c r="AB3" s="6">
-        <f>Receitas!J19</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="68"/>
+        <f>Receitas!J17</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="62"/>
       <c r="AE3" s="6">
-        <f>Receitas!K19</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="68"/>
+        <f>Receitas!K17</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="62"/>
       <c r="AH3" s="6">
-        <f>Receitas!L19</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="68"/>
+        <f>Receitas!L17</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="62"/>
       <c r="AK3" s="6">
-        <f>Receitas!M19</f>
+        <f>Receitas!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="D4" s="81">
+      <c r="B4" s="63"/>
+      <c r="D4" s="75">
         <f>D3-(SUM(D7:D15))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="70"/>
+        <v>715</v>
+      </c>
+      <c r="E4" s="64"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="81">
+      <c r="G4" s="75">
         <f>G3-(SUM(G7:G15))+D4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="70"/>
-      <c r="J4" s="81">
+        <v>715</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="J4" s="75">
         <f>J3-(SUM(J7:J15))+G4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="70"/>
-      <c r="M4" s="81">
+        <v>715</v>
+      </c>
+      <c r="K4" s="64"/>
+      <c r="M4" s="75">
         <f>M3-(SUM(M7:M15))+J4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="70"/>
-      <c r="P4" s="81">
+        <v>715</v>
+      </c>
+      <c r="N4" s="64"/>
+      <c r="P4" s="75">
         <f>P3-(SUM(P7:P15))+M4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="70"/>
-      <c r="S4" s="81">
+        <v>715</v>
+      </c>
+      <c r="Q4" s="64"/>
+      <c r="S4" s="75">
         <f>S3-(SUM(S7:S15))+P4</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="70"/>
-      <c r="V4" s="81">
+        <v>715</v>
+      </c>
+      <c r="T4" s="64"/>
+      <c r="V4" s="75">
         <f>V3-(SUM(V7:V15))+S4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="70"/>
-      <c r="Y4" s="81">
+        <v>715</v>
+      </c>
+      <c r="W4" s="64"/>
+      <c r="Y4" s="75">
         <f>Y3-(SUM(Y7:Y15))+V4</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="70"/>
-      <c r="AB4" s="81">
+        <v>715</v>
+      </c>
+      <c r="Z4" s="64"/>
+      <c r="AB4" s="75">
         <f>AB3-(SUM(AB7:AB15))+Y4</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="70"/>
-      <c r="AE4" s="81">
+        <v>715</v>
+      </c>
+      <c r="AC4" s="64"/>
+      <c r="AE4" s="75">
         <f>AE3-(SUM(AE7:AE15))+AB4</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="70"/>
-      <c r="AH4" s="81">
+        <v>155</v>
+      </c>
+      <c r="AF4" s="64"/>
+      <c r="AH4" s="75">
         <f>AH3-(SUM(AH7:AH15))+AE4</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="70"/>
-      <c r="AK4" s="81">
+        <v>155</v>
+      </c>
+      <c r="AI4" s="64"/>
+      <c r="AK4" s="75">
         <f>AK3-SUM(AK7:AK15)+AH4</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="69"/>
-      <c r="X6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE6" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK6" s="79" t="s">
-        <v>45</v>
+      <c r="B6" s="66"/>
+      <c r="C6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="63"/>
+      <c r="O6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="63"/>
+      <c r="U6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="63"/>
+      <c r="X6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK6" s="73" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="8" t="str" cm="1">
         <f t="array" ref="F7:F15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="2" t="str" cm="1">
         <f t="array" ref="I7:I15">Categorias</f>
         <v>Alimentação</v>
@@ -8785,16 +8826,16 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="66"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="8" t="str" cm="1">
         <f t="array" ref="L7:L15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="66"/>
+      <c r="N7" s="60"/>
       <c r="O7" s="2" t="str" cm="1">
         <f t="array" ref="O7:O15">Categorias</f>
         <v>Alimentação</v>
@@ -8803,16 +8844,16 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="66"/>
+      <c r="Q7" s="60"/>
       <c r="R7" s="8" t="str" cm="1">
         <f t="array" ref="R7:R15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="S7" s="101">
+      <c r="S7" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R7)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="66"/>
+      <c r="T7" s="60"/>
       <c r="U7" s="2" t="str" cm="1">
         <f t="array" ref="U7:U15">Categorias</f>
         <v>Alimentação</v>
@@ -8821,16 +8862,16 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U7)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="66"/>
+      <c r="W7" s="60"/>
       <c r="X7" s="8" t="str" cm="1">
         <f t="array" ref="X7:X15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="Y7" s="101">
+      <c r="Y7" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="66"/>
+      <c r="Z7" s="60"/>
       <c r="AA7" s="2" t="str" cm="1">
         <f t="array" ref="AA7:AA15">Categorias</f>
         <v>Alimentação</v>
@@ -8839,16 +8880,16 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA7)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="66"/>
+      <c r="AC7" s="60"/>
       <c r="AD7" s="8" t="str" cm="1">
         <f t="array" ref="AD7:AD15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="AE7" s="101">
+      <c r="AE7" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="66"/>
+        <v>10</v>
+      </c>
+      <c r="AF7" s="60"/>
       <c r="AG7" s="2" t="str" cm="1">
         <f t="array" ref="AG7:AG15">Categorias</f>
         <v>Alimentação</v>
@@ -8857,35 +8898,35 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="66"/>
+      <c r="AI7" s="60"/>
       <c r="AJ7" s="8" t="str" cm="1">
         <f t="array" ref="AJ7:AJ15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="AK7" s="101">
+      <c r="AK7" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C8)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="2" t="str">
         <v>G. Resid.</v>
       </c>
@@ -8893,15 +8934,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="66"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="66"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="2" t="str">
         <v>G. Resid.</v>
       </c>
@@ -8909,15 +8950,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="66"/>
+      <c r="Q8" s="60"/>
       <c r="R8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="S8" s="101">
+      <c r="S8" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R8)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="66"/>
+      <c r="T8" s="60"/>
       <c r="U8" s="2" t="str">
         <v>G. Resid.</v>
       </c>
@@ -8925,15 +8966,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U8)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="66"/>
+      <c r="W8" s="60"/>
       <c r="X8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="Y8" s="101">
+      <c r="Y8" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X8)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="66"/>
+      <c r="Z8" s="60"/>
       <c r="AA8" s="2" t="str">
         <v>G. Resid.</v>
       </c>
@@ -8941,15 +8982,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="66"/>
+      <c r="AC8" s="60"/>
       <c r="AD8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="AE8" s="101">
+      <c r="AE8" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="66"/>
+        <v>150</v>
+      </c>
+      <c r="AF8" s="60"/>
       <c r="AG8" s="2" t="str">
         <v>G. Resid.</v>
       </c>
@@ -8957,34 +8998,34 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG8)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="66"/>
+      <c r="AI8" s="60"/>
       <c r="AJ8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="AK8" s="101">
+      <c r="AK8" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="2" t="str">
         <v>Eletron e Jogos</v>
       </c>
@@ -8992,15 +9033,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="66"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="66"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="2" t="str">
         <v>Eletron e Jogos</v>
       </c>
@@ -9008,15 +9049,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O9)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="66"/>
+      <c r="Q9" s="60"/>
       <c r="R9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="S9" s="101">
+      <c r="S9" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R9)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="66"/>
+      <c r="T9" s="60"/>
       <c r="U9" s="2" t="str">
         <v>Eletron e Jogos</v>
       </c>
@@ -9024,15 +9065,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U9)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="66"/>
+      <c r="W9" s="60"/>
       <c r="X9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="Y9" s="101">
+      <c r="Y9" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X9)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="66"/>
+      <c r="Z9" s="60"/>
       <c r="AA9" s="2" t="str">
         <v>Eletron e Jogos</v>
       </c>
@@ -9040,15 +9081,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA9)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="66"/>
+      <c r="AC9" s="60"/>
       <c r="AD9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="AE9" s="101">
+      <c r="AE9" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD9)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="66"/>
+      <c r="AF9" s="60"/>
       <c r="AG9" s="2" t="str">
         <v>Eletron e Jogos</v>
       </c>
@@ -9056,34 +9097,34 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG9)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="66"/>
+      <c r="AI9" s="60"/>
       <c r="AJ9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="AK9" s="101">
+      <c r="AK9" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="66"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="2" t="str">
         <v>Cursos</v>
       </c>
@@ -9091,15 +9132,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="66"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="66"/>
+      <c r="N10" s="60"/>
       <c r="O10" s="2" t="str">
         <v>Cursos</v>
       </c>
@@ -9107,15 +9148,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O10)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="66"/>
+      <c r="Q10" s="60"/>
       <c r="R10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="S10" s="101">
+      <c r="S10" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="66"/>
+      <c r="T10" s="60"/>
       <c r="U10" s="2" t="str">
         <v>Cursos</v>
       </c>
@@ -9123,15 +9164,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="66"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="Y10" s="101">
+      <c r="Y10" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X10)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="66"/>
+      <c r="Z10" s="60"/>
       <c r="AA10" s="2" t="str">
         <v>Cursos</v>
       </c>
@@ -9139,15 +9180,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA10)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="66"/>
+      <c r="AC10" s="60"/>
       <c r="AD10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="AE10" s="101">
+      <c r="AE10" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD10)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="66"/>
+      <c r="AF10" s="60"/>
       <c r="AG10" s="2" t="str">
         <v>Cursos</v>
       </c>
@@ -9155,34 +9196,34 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG10)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="66"/>
+      <c r="AI10" s="60"/>
       <c r="AJ10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="AK10" s="101">
+      <c r="AK10" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="2" t="str">
         <v>Farm. e Saúde.</v>
       </c>
@@ -9190,15 +9231,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="66"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="66"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="2" t="str">
         <v>Farm. e Saúde.</v>
       </c>
@@ -9206,15 +9247,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O11)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="66"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="S11" s="101">
+      <c r="S11" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R11)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="66"/>
+      <c r="T11" s="60"/>
       <c r="U11" s="2" t="str">
         <v>Farm. e Saúde.</v>
       </c>
@@ -9222,15 +9263,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U11)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="66"/>
+      <c r="W11" s="60"/>
       <c r="X11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X11)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="66"/>
+      <c r="Z11" s="60"/>
       <c r="AA11" s="2" t="str">
         <v>Farm. e Saúde.</v>
       </c>
@@ -9238,15 +9279,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA11)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="66"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="AE11" s="101">
+      <c r="AE11" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD11)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="66"/>
+      <c r="AF11" s="60"/>
       <c r="AG11" s="2" t="str">
         <v>Farm. e Saúde.</v>
       </c>
@@ -9254,34 +9295,34 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG11)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="66"/>
+      <c r="AI11" s="60"/>
       <c r="AJ11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="AK11" s="101">
+      <c r="AK11" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="66"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="66"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="2" t="str">
         <v>Entret e Livros</v>
       </c>
@@ -9289,15 +9330,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="66"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="66"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="2" t="str">
         <v>Entret e Livros</v>
       </c>
@@ -9305,15 +9346,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O12)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="66"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="S12" s="101">
+      <c r="S12" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R12)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="66"/>
+      <c r="T12" s="60"/>
       <c r="U12" s="2" t="str">
         <v>Entret e Livros</v>
       </c>
@@ -9321,15 +9362,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U12)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="66"/>
+      <c r="W12" s="60"/>
       <c r="X12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="Y12" s="101">
+      <c r="Y12" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X12)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="66"/>
+      <c r="Z12" s="60"/>
       <c r="AA12" s="2" t="str">
         <v>Entret e Livros</v>
       </c>
@@ -9337,15 +9378,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA12)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="66"/>
+      <c r="AC12" s="60"/>
       <c r="AD12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="AE12" s="101">
+      <c r="AE12" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD12)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="66"/>
+      <c r="AF12" s="60"/>
       <c r="AG12" s="2" t="str">
         <v>Entret e Livros</v>
       </c>
@@ -9353,18 +9394,18 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG12)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="66"/>
+      <c r="AI12" s="60"/>
       <c r="AJ12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="AK12" s="101">
+      <c r="AK12" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
@@ -9372,15 +9413,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="2" t="str">
         <v>Rolê</v>
       </c>
@@ -9388,15 +9429,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="66"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="66"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="2" t="str">
         <v>Rolê</v>
       </c>
@@ -9404,15 +9445,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="66"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="S13" s="101">
+      <c r="S13" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R13)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="66"/>
+      <c r="T13" s="60"/>
       <c r="U13" s="2" t="str">
         <v>Rolê</v>
       </c>
@@ -9420,15 +9461,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U13)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="66"/>
+      <c r="W13" s="60"/>
       <c r="X13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="Y13" s="101">
+      <c r="Y13" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X13)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="66"/>
+      <c r="Z13" s="60"/>
       <c r="AA13" s="2" t="str">
         <v>Rolê</v>
       </c>
@@ -9436,15 +9477,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="66"/>
+      <c r="AC13" s="60"/>
       <c r="AD13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="AE13" s="101">
+      <c r="AE13" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD13)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="66"/>
+      <c r="AF13" s="60"/>
       <c r="AG13" s="2" t="str">
         <v>Rolê</v>
       </c>
@@ -9452,18 +9493,18 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG13)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="66"/>
+      <c r="AI13" s="60"/>
       <c r="AJ13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="AK13" s="101">
+      <c r="AK13" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
@@ -9471,15 +9512,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="66"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="2" t="str">
         <v>Roupas</v>
       </c>
@@ -9487,15 +9528,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="66"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="66"/>
+      <c r="N14" s="60"/>
       <c r="O14" s="2" t="str">
         <v>Roupas</v>
       </c>
@@ -9503,15 +9544,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="66"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="S14" s="101">
+      <c r="S14" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R14)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="66"/>
+      <c r="T14" s="60"/>
       <c r="U14" s="2" t="str">
         <v>Roupas</v>
       </c>
@@ -9519,15 +9560,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U14)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="66"/>
+      <c r="W14" s="60"/>
       <c r="X14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="Y14" s="101">
+      <c r="Y14" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X14)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="66"/>
+      <c r="Z14" s="60"/>
       <c r="AA14" s="2" t="str">
         <v>Roupas</v>
       </c>
@@ -9535,15 +9576,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA14)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="66"/>
+      <c r="AC14" s="60"/>
       <c r="AD14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="AE14" s="101">
+      <c r="AE14" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="66"/>
+        <v>400</v>
+      </c>
+      <c r="AF14" s="60"/>
       <c r="AG14" s="2" t="str">
         <v>Roupas</v>
       </c>
@@ -9551,34 +9592,34 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG14)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="66"/>
+      <c r="AI14" s="60"/>
       <c r="AJ14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="AK14" s="101">
+      <c r="AK14" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="17.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="2" t="str">
         <v>G. Gerais</v>
       </c>
@@ -9586,15 +9627,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!J$2,Tabela1[Categoria],'Despesas - Mapa'!I15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="66"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="M15" s="101">
+      <c r="M15" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="66"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="2" t="str">
         <v>G. Gerais</v>
       </c>
@@ -9602,15 +9643,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!P$2,Tabela1[Categoria],'Despesas - Mapa'!O15)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="66"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="S15" s="101">
+      <c r="S15" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R15)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="66"/>
+      <c r="T15" s="60"/>
       <c r="U15" s="2" t="str">
         <v>G. Gerais</v>
       </c>
@@ -9618,15 +9659,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!V$2,Tabela1[Categoria],'Despesas - Mapa'!U15)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="66"/>
+      <c r="W15" s="60"/>
       <c r="X15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X15)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="66"/>
+      <c r="Z15" s="60"/>
       <c r="AA15" s="2" t="str">
         <v>G. Gerais</v>
       </c>
@@ -9634,15 +9675,15 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AB$2,Tabela1[Categoria],'Despesas - Mapa'!AA15)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="66"/>
+      <c r="AC15" s="60"/>
       <c r="AD15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="AE15" s="101">
+      <c r="AE15" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD15)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="66"/>
+      <c r="AF15" s="60"/>
       <c r="AG15" s="2" t="str">
         <v>G. Gerais</v>
       </c>
@@ -9650,124 +9691,124 @@
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AH$2,Tabela1[Categoria],'Despesas - Mapa'!AG15)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="66"/>
+      <c r="AI15" s="60"/>
       <c r="AJ15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="AK15" s="101">
+      <c r="AK15" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="73"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="66"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="96"/>
-    </row>
-    <row r="17" spans="1:37" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="92" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="67"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="60"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="86"/>
+    </row>
+    <row r="17" spans="1:37" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="121">
+      <c r="B17" s="68"/>
+      <c r="C17" s="113">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="122">
+      <c r="D17" s="113"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="114">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="121">
+      <c r="G17" s="114"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="113">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="121"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="122">
+      <c r="J17" s="113"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="114">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="122"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="121">
+      <c r="M17" s="114"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="113">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="122">
+      <c r="P17" s="113"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="114">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="122"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="121">
+      <c r="S17" s="114"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="113">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="121"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="122">
+      <c r="V17" s="113"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="114">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="121">
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="113">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="122">
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="114">
         <f>SUM(AE7:AE15)</f>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="121">
+        <v>560</v>
+      </c>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="113">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="122">
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="114">
         <f>SUM(AK7:AK15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="122"/>
+      <c r="AK17" s="114"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -9782,6 +9823,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -9790,11 +9836,6 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -9830,467 +9871,467 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="22" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="22" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="22" customWidth="1"/>
-    <col min="10" max="10" width="5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="15.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="21" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="5" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="48" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="43" t="s">
         <v>32</v>
       </c>
+      <c r="I2" s="44" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="51">
-        <f>Receitas!B19</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="52">
-        <f>Receitas!B11</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="57">
+      <c r="B3" s="37"/>
+      <c r="C3" s="47">
+        <f>Receitas!B17</f>
+        <v>715</v>
+      </c>
+      <c r="D3" s="48">
+        <f>Receitas!B15</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="53">
         <f>SUM('Despesas - Mapa'!C17:C17)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="51">
+      <c r="G3" s="40"/>
+      <c r="H3" s="47">
         <f>I3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="54">
+        <v>715</v>
+      </c>
+      <c r="I3" s="50">
         <f>'Despesas - Mapa'!D4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="51">
-        <f>Receitas!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="52">
-        <f>Receitas!C11</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="57">
+      <c r="B4" s="37"/>
+      <c r="C4" s="47">
+        <f>Receitas!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="48">
+        <f>Receitas!C15</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="53">
         <f>SUM('Despesas - Mapa'!F17:G17)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="51">
+      <c r="G4" s="40"/>
+      <c r="H4" s="47">
         <f>I4-I3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="50">
         <f>'Despesas - Mapa'!G4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="51">
-        <f>Receitas!D19</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="52">
-        <f>Receitas!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="57">
+      <c r="B5" s="37"/>
+      <c r="C5" s="47">
+        <f>Receitas!D17</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="48">
+        <f>Receitas!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="53">
         <f>SUM('Despesas - Mapa'!I17:J17)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="51">
+      <c r="G5" s="40"/>
+      <c r="H5" s="47">
         <f t="shared" ref="H5:H14" si="0">I5-I4</f>
         <v>0</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="50">
         <f>'Despesas - Mapa'!J4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="51">
-        <f>Receitas!E19</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="52">
-        <f>Receitas!E11</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="57">
+      <c r="B6" s="37"/>
+      <c r="C6" s="47">
+        <f>Receitas!E17</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="48">
+        <f>Receitas!E15</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="53">
         <f>SUM('Despesas - Mapa'!L17:M17)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="51">
+      <c r="G6" s="40"/>
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="50">
         <f>'Despesas - Mapa'!M4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="51">
-        <f>Receitas!F19</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="52">
-        <f>Receitas!F11</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="57">
+      <c r="B7" s="37"/>
+      <c r="C7" s="47">
+        <f>Receitas!F17</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="48">
+        <f>Receitas!F15</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="53">
         <f>SUM('Despesas - Mapa'!O17:P17)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="51">
+      <c r="G7" s="40"/>
+      <c r="H7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="50">
         <f>'Despesas - Mapa'!P4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="51">
-        <f>Receitas!G19</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="52">
-        <f>Receitas!G11</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="57">
+      <c r="B8" s="37"/>
+      <c r="C8" s="47">
+        <f>Receitas!G17</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="48">
+        <f>Receitas!G15</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="53">
         <f>SUM('Despesas - Mapa'!R17:S17)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="51">
+      <c r="G8" s="40"/>
+      <c r="H8" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="50">
         <f>'Despesas - Mapa'!S4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="51">
-        <f>Receitas!H19</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="52">
-        <f>Receitas!H11</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="57">
+      <c r="B9" s="37"/>
+      <c r="C9" s="47">
+        <f>Receitas!H17</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="48">
+        <f>Receitas!H15</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="53">
         <f>SUM('Despesas - Mapa'!U17:V17)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="51">
+      <c r="G9" s="40"/>
+      <c r="H9" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="50">
         <f>'Despesas - Mapa'!V4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="51">
-        <f>Receitas!I19</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="52">
-        <f>Receitas!I11</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="57">
+      <c r="B10" s="37"/>
+      <c r="C10" s="47">
+        <f>Receitas!I17</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="48">
+        <f>Receitas!I15</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="53">
         <f>SUM('Despesas - Mapa'!X17:Y17)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="51">
+      <c r="G10" s="40"/>
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="50">
         <f>'Despesas - Mapa'!Y4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="51">
-        <f>Receitas!J19</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="52">
-        <f>Receitas!J11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="57">
+      <c r="B11" s="37"/>
+      <c r="C11" s="47">
+        <f>Receitas!J17</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="48">
+        <f>Receitas!J15</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="53">
         <f>SUM('Despesas - Mapa'!AA17:AB17)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="51">
+      <c r="G11" s="40"/>
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="50">
         <f>'Despesas - Mapa'!AB4</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="51">
-        <f>Receitas!K19</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="52">
-        <f>Receitas!K11</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="57">
+      <c r="B12" s="37"/>
+      <c r="C12" s="47">
+        <f>Receitas!K17</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="48">
+        <f>Receitas!K15</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="53">
         <f>SUM('Despesas - Mapa'!AD17:AE17)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="51">
+        <v>560</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="54">
+        <v>-560</v>
+      </c>
+      <c r="I12" s="50">
         <f>'Despesas - Mapa'!AE4</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="51">
-        <f>Receitas!L19</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="52">
-        <f>Receitas!L11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="57">
+      <c r="B13" s="37"/>
+      <c r="C13" s="47">
+        <f>Receitas!L17</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="48">
+        <f>Receitas!L15</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="53">
         <f>SUM('Despesas - Mapa'!AG17:AH17)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="51">
+      <c r="G13" s="40"/>
+      <c r="H13" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="50">
         <f>'Despesas - Mapa'!AH4</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="51">
-        <f>Receitas!M19</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="52">
-        <f>Receitas!M11</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="57">
+      <c r="B14" s="37"/>
+      <c r="C14" s="47">
+        <f>Receitas!M17</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="48">
+        <f>Receitas!M15</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="53">
         <f>SUM('Despesas - Mapa'!AJ17:AK17)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="51">
+      <c r="G14" s="40"/>
+      <c r="H14" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="50">
         <f>'Despesas - Mapa'!AK4</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="53">
+      <c r="B15" s="37"/>
+      <c r="C15" s="49">
         <f>SUM(C3:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="52">
+        <v>715</v>
+      </c>
+      <c r="D15" s="48">
         <f t="shared" ref="D15" si="1">SUM(D3:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="57">
+        <v>50</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="53">
         <f>SUM(F3:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="61" t="s">
+        <v>560</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="52">
         <f>'Resultado '!D9</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="53">
+      <c r="B16" s="37"/>
+      <c r="C16" s="49">
         <f>AVERAGE(C3:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="52">
+        <v>59.583333333333336</v>
+      </c>
+      <c r="D16" s="48">
         <f t="shared" ref="D16" si="2">AVERAGE(D3:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="58">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="54">
         <f>AVERAGE(F3:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="46"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="47">
+        <f>SUM(C3:C8)</f>
+        <v>715</v>
+      </c>
+      <c r="D17" s="50">
+        <f t="shared" ref="D17" si="3">SUM(D3:D8)</f>
+        <v>50</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="55">
+        <f>SUM(F3:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="51">
-        <f>SUM(C3:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="54">
-        <f t="shared" ref="D17" si="3">SUM(D3:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="59">
-        <f>SUM(F3:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="55">
+      <c r="B18" s="37"/>
+      <c r="C18" s="51">
         <f>SUM($C$9:$C$14)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="52">
         <f>SUM($D$9:$D$14)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="60">
+      <c r="E18" s="40"/>
+      <c r="F18" s="56">
         <f>SUM($F$9:$F$14)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+        <v>560</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -10332,22 +10373,22 @@
     <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
     <row r="2" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="19"/>
-      <c r="C2" s="123" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="123" t="s">
+      <c r="C2" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="117"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="124"/>
+      <c r="G2" s="117"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -10355,21 +10396,21 @@
     </row>
     <row r="3" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
-      <c r="C3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="37">
-        <f>SUM(Receitas!B3:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="38" t="str">
+      <c r="C3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="33">
+        <f>SUM(Receitas!B4:M6)</f>
+        <v>1000</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="34" t="str">
         <f>'Despesas - Mapa'!C7</f>
         <v>Alimentação</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="35">
         <f>SUM('Despesas - Mapa'!D7,'Despesas - Mapa'!G7,'Despesas - Mapa'!J7,'Despesas - Mapa'!M7,'Despesas - Mapa'!P7,'Despesas - Mapa'!S7,'Despesas - Mapa'!V7,'Despesas - Mapa'!Y7,'Despesas - Mapa'!AB7,'Despesas - Mapa'!AE7,'Despesas - Mapa'!AH7,'Despesas - Mapa'!AK7)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -10381,18 +10422,18 @@
       <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="28">
-        <f>SUM(Receitas!B13:M17)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="38" t="str">
+      <c r="D4" s="25">
+        <f>SUM(Receitas!B9:M12)</f>
+        <v>150</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="34" t="str">
         <f>'Despesas - Mapa'!C8</f>
         <v>G. Resid.</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="35">
         <f>SUM('Despesas - Mapa'!D8,'Despesas - Mapa'!G8,'Despesas - Mapa'!J8,'Despesas - Mapa'!M8,'Despesas - Mapa'!P8,'Despesas - Mapa'!S8,'Despesas - Mapa'!V8,'Despesas - Mapa'!Y8,'Despesas - Mapa'!AB8,'Despesas - Mapa'!AE8,'Despesas - Mapa'!AH8,'Despesas - Mapa'!AK8)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
@@ -10402,18 +10443,18 @@
     <row r="5" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B5" s="19"/>
       <c r="C5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="28">
-        <f>SUM(Receitas!B3:M8)-SUM(Receitas!B10:M11)-SUM(Receitas!B13:M17)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="38" t="str">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25">
+        <f>SUM(Receitas!B4:M6)-SUM(Receitas!B14:M15)-SUM(Receitas!B9:M12)</f>
+        <v>715</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="34" t="str">
         <f>'Despesas - Mapa'!C9</f>
         <v>Eletron e Jogos</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="35">
         <f>SUM('Despesas - Mapa'!D9,'Despesas - Mapa'!G9,'Despesas - Mapa'!J9,'Despesas - Mapa'!M9,'Despesas - Mapa'!P9,'Despesas - Mapa'!S9,'Despesas - Mapa'!V9,'Despesas - Mapa'!Y9,'Despesas - Mapa'!AB9,'Despesas - Mapa'!AE9,'Despesas - Mapa'!AH9,'Despesas - Mapa'!AK9)</f>
         <v>0</v>
       </c>
@@ -10425,18 +10466,18 @@
     <row r="6" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B6" s="19"/>
       <c r="C6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="28">
+        <v>42</v>
+      </c>
+      <c r="D6" s="25">
         <f>SUM('Despesas - Mapa'!D7:D14,'Despesas - Mapa'!G7:G14,'Despesas - Mapa'!J7:J14,'Despesas - Mapa'!M7:M14,'Despesas - Mapa'!P7:P14,'Despesas - Mapa'!S7:S14,'Despesas - Mapa'!V7:V14,'Despesas - Mapa'!Y7:Y14,'Despesas - Mapa'!AB7:AB14,'Despesas - Mapa'!AE7:AE14,'Despesas - Mapa'!AH7:AH14,'Despesas - Mapa'!AK7:AK14)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="38" t="str">
+        <v>560</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="34" t="str">
         <f>'Despesas - Mapa'!C10</f>
         <v>Cursos</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <f>SUM('Despesas - Mapa'!D10,'Despesas - Mapa'!G10,'Despesas - Mapa'!J10,'Despesas - Mapa'!M10,'Despesas - Mapa'!P10,'Despesas - Mapa'!S10,'Despesas - Mapa'!V10,'Despesas - Mapa'!Y10,'Despesas - Mapa'!AB10,'Despesas - Mapa'!AE10,'Despesas - Mapa'!AH10,'Despesas - Mapa'!AK10)</f>
         <v>0</v>
       </c>
@@ -10448,18 +10489,18 @@
     <row r="7" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B7" s="19"/>
       <c r="C7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="28">
+        <v>33</v>
+      </c>
+      <c r="D7" s="25">
         <f>SUM('Despesas - Mapa'!D15:D15,'Despesas - Mapa'!G15:G15,'Despesas - Mapa'!J15:J15,'Despesas - Mapa'!M15:M15,'Despesas - Mapa'!P15:P15,'Despesas - Mapa'!S15:S15,'Despesas - Mapa'!V15:V15,'Despesas - Mapa'!Y15:Y15,'Despesas - Mapa'!AB15:AB15,'Despesas - Mapa'!AE15:AE15,'Despesas - Mapa'!AH15:AH15,'Despesas - Mapa'!AK15:AK15)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="38" t="str">
+      <c r="E7" s="26"/>
+      <c r="F7" s="34" t="str">
         <f>'Despesas - Mapa'!C11</f>
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="35">
         <f>SUM('Despesas - Mapa'!D11,'Despesas - Mapa'!G11,'Despesas - Mapa'!J11,'Despesas - Mapa'!M11,'Despesas - Mapa'!P11,'Despesas - Mapa'!S11,'Despesas - Mapa'!V11,'Despesas - Mapa'!Y11,'Despesas - Mapa'!AB11,'Despesas - Mapa'!AE11,'Despesas - Mapa'!AH11,'Despesas - Mapa'!AK11)</f>
         <v>0</v>
       </c>
@@ -10471,18 +10512,18 @@
     <row r="8" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B8" s="19"/>
       <c r="C8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="28">
+        <v>41</v>
+      </c>
+      <c r="D8" s="25">
         <f>SUM(D6:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="38" t="str">
+        <v>560</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="34" t="str">
         <f>'Despesas - Mapa'!C12</f>
         <v>Entret e Livros</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="35">
         <f>SUM('Despesas - Mapa'!D12,'Despesas - Mapa'!G12,'Despesas - Mapa'!J12,'Despesas - Mapa'!M12,'Despesas - Mapa'!P12,'Despesas - Mapa'!S12,'Despesas - Mapa'!V12,'Despesas - Mapa'!Y12,'Despesas - Mapa'!AB12,'Despesas - Mapa'!AE12,'Despesas - Mapa'!AH12,'Despesas - Mapa'!AK12)</f>
         <v>0</v>
       </c>
@@ -10496,16 +10537,16 @@
       <c r="C9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <f>'Despesas - Mapa'!AK4</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="38" t="str">
+        <v>155</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="34" t="str">
         <f>'Despesas - Mapa'!C13</f>
         <v>Rolê</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="35">
         <f>SUM('Despesas - Mapa'!D13,'Despesas - Mapa'!G13,'Despesas - Mapa'!J13,'Despesas - Mapa'!M13,'Despesas - Mapa'!P13,'Despesas - Mapa'!S13,'Despesas - Mapa'!V13,'Despesas - Mapa'!Y13,'Despesas - Mapa'!AB13,'Despesas - Mapa'!AE13,'Despesas - Mapa'!AH13,'Despesas - Mapa'!AK13)</f>
         <v>0</v>
       </c>
@@ -10519,18 +10560,18 @@
       <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="30">
-        <f>SUM(Receitas!B11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="38" t="str">
+      <c r="D10" s="27">
+        <f>SUM(Receitas!B15:M15)</f>
+        <v>50</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="34" t="str">
         <f>'Despesas - Mapa'!C14</f>
         <v>Roupas</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="35">
         <f>SUM('Despesas - Mapa'!D14,'Despesas - Mapa'!G14,'Despesas - Mapa'!J14,'Despesas - Mapa'!M14,'Despesas - Mapa'!P14,'Despesas - Mapa'!S14,'Despesas - Mapa'!V14,'Despesas - Mapa'!Y14,'Despesas - Mapa'!AB14,'Despesas - Mapa'!AE14,'Despesas - Mapa'!AH14,'Despesas - Mapa'!AK14)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="11"/>
@@ -10540,14 +10581,14 @@
     <row r="11" spans="2:13" ht="19.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="30">
         <f>SUM(G3:G10)</f>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="11"/>
